--- a/processed_data/newoutput.xlsx
+++ b/processed_data/newoutput.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4719"/>
+  <dimension ref="A1:B4891"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47625,6 +47625,1726 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4720">
+      <c r="A4720" t="inlineStr">
+        <is>
+          <t>1381324131589832705</t>
+        </is>
+      </c>
+      <c r="B4720" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4721">
+      <c r="A4721" t="inlineStr">
+        <is>
+          <t>1381324232638926849</t>
+        </is>
+      </c>
+      <c r="B4721" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4722">
+      <c r="A4722" t="inlineStr">
+        <is>
+          <t>1381324232576077824</t>
+        </is>
+      </c>
+      <c r="B4722" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4723">
+      <c r="A4723" t="inlineStr">
+        <is>
+          <t>1381324232706158598</t>
+        </is>
+      </c>
+      <c r="B4723" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4724">
+      <c r="A4724" t="inlineStr">
+        <is>
+          <t>1381324232865505285</t>
+        </is>
+      </c>
+      <c r="B4724" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4725">
+      <c r="A4725" t="inlineStr">
+        <is>
+          <t>1381324232827756548</t>
+        </is>
+      </c>
+      <c r="B4725" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4726">
+      <c r="A4726" t="inlineStr">
+        <is>
+          <t>1381324234610241537</t>
+        </is>
+      </c>
+      <c r="B4726" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4727">
+      <c r="A4727" t="inlineStr">
+        <is>
+          <t>1381324234438377478</t>
+        </is>
+      </c>
+      <c r="B4727" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4728">
+      <c r="A4728" t="inlineStr">
+        <is>
+          <t>1381324234413256704</t>
+        </is>
+      </c>
+      <c r="B4728" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4729">
+      <c r="A4729" t="inlineStr">
+        <is>
+          <t>1381324234975248386</t>
+        </is>
+      </c>
+      <c r="B4729" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4730">
+      <c r="A4730" t="inlineStr">
+        <is>
+          <t>1381324234958381056</t>
+        </is>
+      </c>
+      <c r="B4730" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4731">
+      <c r="A4731" t="inlineStr">
+        <is>
+          <t>1381324236048982018</t>
+        </is>
+      </c>
+      <c r="B4731" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4732">
+      <c r="A4732" t="inlineStr">
+        <is>
+          <t>1381324236212539392</t>
+        </is>
+      </c>
+      <c r="B4732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4733">
+      <c r="A4733" t="inlineStr">
+        <is>
+          <t>1381324236380237824</t>
+        </is>
+      </c>
+      <c r="B4733" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4734">
+      <c r="A4734" t="inlineStr">
+        <is>
+          <t>1381324236866785280</t>
+        </is>
+      </c>
+      <c r="B4734" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4735">
+      <c r="A4735" t="inlineStr">
+        <is>
+          <t>1381324236816412673</t>
+        </is>
+      </c>
+      <c r="B4735" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4736">
+      <c r="A4736" t="inlineStr">
+        <is>
+          <t>1381324237282103300</t>
+        </is>
+      </c>
+      <c r="B4736" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4737">
+      <c r="A4737" t="inlineStr">
+        <is>
+          <t>1381324237642797058</t>
+        </is>
+      </c>
+      <c r="B4737" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4738">
+      <c r="A4738" t="inlineStr">
+        <is>
+          <t>1381324237659635714</t>
+        </is>
+      </c>
+      <c r="B4738" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4739">
+      <c r="A4739" t="inlineStr">
+        <is>
+          <t>1381324237588336649</t>
+        </is>
+      </c>
+      <c r="B4739" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4740">
+      <c r="A4740" t="inlineStr">
+        <is>
+          <t>1381324236959145988</t>
+        </is>
+      </c>
+      <c r="B4740" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4741">
+      <c r="A4741" t="inlineStr">
+        <is>
+          <t>1381324238242594830</t>
+        </is>
+      </c>
+      <c r="B4741" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4742">
+      <c r="A4742" t="inlineStr">
+        <is>
+          <t>1381324238838173696</t>
+        </is>
+      </c>
+      <c r="B4742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4743">
+      <c r="A4743" t="inlineStr">
+        <is>
+          <t>1381324239542845441</t>
+        </is>
+      </c>
+      <c r="B4743" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4744">
+      <c r="A4744" t="inlineStr">
+        <is>
+          <t>1381324239836475398</t>
+        </is>
+      </c>
+      <c r="B4744" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4745">
+      <c r="A4745" t="inlineStr">
+        <is>
+          <t>1381324240033615880</t>
+        </is>
+      </c>
+      <c r="B4745" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4746">
+      <c r="A4746" t="inlineStr">
+        <is>
+          <t>1381324240323014658</t>
+        </is>
+      </c>
+      <c r="B4746" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4747">
+      <c r="A4747" t="inlineStr">
+        <is>
+          <t>1381324240327217153</t>
+        </is>
+      </c>
+      <c r="B4747" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4748">
+      <c r="A4748" t="inlineStr">
+        <is>
+          <t>1381324240620826626</t>
+        </is>
+      </c>
+      <c r="B4748" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4749">
+      <c r="A4749" t="inlineStr">
+        <is>
+          <t>1381324241497419779</t>
+        </is>
+      </c>
+      <c r="B4749" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4750">
+      <c r="A4750" t="inlineStr">
+        <is>
+          <t>1381324241635848192</t>
+        </is>
+      </c>
+      <c r="B4750" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4751">
+      <c r="A4751" t="inlineStr">
+        <is>
+          <t>1381324242084634631</t>
+        </is>
+      </c>
+      <c r="B4751" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4752">
+      <c r="A4752" t="inlineStr">
+        <is>
+          <t>1381324242273370120</t>
+        </is>
+      </c>
+      <c r="B4752" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4753">
+      <c r="A4753" t="inlineStr">
+        <is>
+          <t>1381324242239774720</t>
+        </is>
+      </c>
+      <c r="B4753" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4754">
+      <c r="A4754" t="inlineStr">
+        <is>
+          <t>1381324242374037506</t>
+        </is>
+      </c>
+      <c r="B4754" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4755">
+      <c r="A4755" t="inlineStr">
+        <is>
+          <t>1381324242646659075</t>
+        </is>
+      </c>
+      <c r="B4755" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4756">
+      <c r="A4756" t="inlineStr">
+        <is>
+          <t>1381324243187625990</t>
+        </is>
+      </c>
+      <c r="B4756" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4757">
+      <c r="A4757" t="inlineStr">
+        <is>
+          <t>1381324243363840006</t>
+        </is>
+      </c>
+      <c r="B4757" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4758">
+      <c r="A4758" t="inlineStr">
+        <is>
+          <t>1381324243409993728</t>
+        </is>
+      </c>
+      <c r="B4758" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4759">
+      <c r="A4759" t="inlineStr">
+        <is>
+          <t>1381324243531563009</t>
+        </is>
+      </c>
+      <c r="B4759" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4760">
+      <c r="A4760" t="inlineStr">
+        <is>
+          <t>1381324243833618440</t>
+        </is>
+      </c>
+      <c r="B4760" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4761">
+      <c r="A4761" t="inlineStr">
+        <is>
+          <t>1381324244299173888</t>
+        </is>
+      </c>
+      <c r="B4761" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4762">
+      <c r="A4762" t="inlineStr">
+        <is>
+          <t>1381324244341170180</t>
+        </is>
+      </c>
+      <c r="B4762" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4763">
+      <c r="A4763" t="inlineStr">
+        <is>
+          <t>1381324244886433794</t>
+        </is>
+      </c>
+      <c r="B4763" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4764">
+      <c r="A4764" t="inlineStr">
+        <is>
+          <t>1381324244986908673</t>
+        </is>
+      </c>
+      <c r="B4764" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4765">
+      <c r="A4765" t="inlineStr">
+        <is>
+          <t>1381324244924166146</t>
+        </is>
+      </c>
+      <c r="B4765" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4766">
+      <c r="A4766" t="inlineStr">
+        <is>
+          <t>1381324245079363586</t>
+        </is>
+      </c>
+      <c r="B4766" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4767">
+      <c r="A4767" t="inlineStr">
+        <is>
+          <t>1381324245590888449</t>
+        </is>
+      </c>
+      <c r="B4767" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4768">
+      <c r="A4768" t="inlineStr">
+        <is>
+          <t>1381324246085947392</t>
+        </is>
+      </c>
+      <c r="B4768" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4769">
+      <c r="A4769" t="inlineStr">
+        <is>
+          <t>1381324246350172160</t>
+        </is>
+      </c>
+      <c r="B4769" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4770">
+      <c r="A4770" t="inlineStr">
+        <is>
+          <t>1381324246719336452</t>
+        </is>
+      </c>
+      <c r="B4770" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4771">
+      <c r="A4771" t="inlineStr">
+        <is>
+          <t>1381324247654629376</t>
+        </is>
+      </c>
+      <c r="B4771" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4772">
+      <c r="A4772" t="inlineStr">
+        <is>
+          <t>1381324247625166849</t>
+        </is>
+      </c>
+      <c r="B4772" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4773">
+      <c r="A4773" t="inlineStr">
+        <is>
+          <t>1381324247793070080</t>
+        </is>
+      </c>
+      <c r="B4773" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4774">
+      <c r="A4774" t="inlineStr">
+        <is>
+          <t>1381324247725969408</t>
+        </is>
+      </c>
+      <c r="B4774" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4775">
+      <c r="A4775" t="inlineStr">
+        <is>
+          <t>1381324248371892225</t>
+        </is>
+      </c>
+      <c r="B4775" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4776">
+      <c r="A4776" t="inlineStr">
+        <is>
+          <t>1381328561617915908</t>
+        </is>
+      </c>
+      <c r="B4776" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4777">
+      <c r="A4777" t="inlineStr">
+        <is>
+          <t>1381328562024808456</t>
+        </is>
+      </c>
+      <c r="B4777" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4778">
+      <c r="A4778" t="inlineStr">
+        <is>
+          <t>1381328563186597890</t>
+        </is>
+      </c>
+      <c r="B4778" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4779">
+      <c r="A4779" t="inlineStr">
+        <is>
+          <t>1381328564516237314</t>
+        </is>
+      </c>
+      <c r="B4779" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4780">
+      <c r="A4780" t="inlineStr">
+        <is>
+          <t>1381328566051340292</t>
+        </is>
+      </c>
+      <c r="B4780" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4781">
+      <c r="A4781" t="inlineStr">
+        <is>
+          <t>1381328567162843140</t>
+        </is>
+      </c>
+      <c r="B4781" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4782">
+      <c r="A4782" t="inlineStr">
+        <is>
+          <t>1381328567418634241</t>
+        </is>
+      </c>
+      <c r="B4782" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4783">
+      <c r="A4783" t="inlineStr">
+        <is>
+          <t>1381328568937021445</t>
+        </is>
+      </c>
+      <c r="B4783" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4784">
+      <c r="A4784" t="inlineStr">
+        <is>
+          <t>1381328569922691076</t>
+        </is>
+      </c>
+      <c r="B4784" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4785">
+      <c r="A4785" t="inlineStr">
+        <is>
+          <t>1381328569989791751</t>
+        </is>
+      </c>
+      <c r="B4785" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4786">
+      <c r="A4786" t="inlineStr">
+        <is>
+          <t>1381328573219344384</t>
+        </is>
+      </c>
+      <c r="B4786" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4787">
+      <c r="A4787" t="inlineStr">
+        <is>
+          <t>1381328575559794690</t>
+        </is>
+      </c>
+      <c r="B4787" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4788">
+      <c r="A4788" t="inlineStr">
+        <is>
+          <t>1381328577162006529</t>
+        </is>
+      </c>
+      <c r="B4788" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4789">
+      <c r="A4789" t="inlineStr">
+        <is>
+          <t>1381328578361634818</t>
+        </is>
+      </c>
+      <c r="B4789" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4790">
+      <c r="A4790" t="inlineStr">
+        <is>
+          <t>1381346580167528448</t>
+        </is>
+      </c>
+      <c r="B4790" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4791">
+      <c r="A4791" t="inlineStr">
+        <is>
+          <t>1381346584575807500</t>
+        </is>
+      </c>
+      <c r="B4791" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4792">
+      <c r="A4792" t="inlineStr">
+        <is>
+          <t>1381346587192987654</t>
+        </is>
+      </c>
+      <c r="B4792" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4793">
+      <c r="A4793" t="inlineStr">
+        <is>
+          <t>1381346589877358597</t>
+        </is>
+      </c>
+      <c r="B4793" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4794">
+      <c r="A4794" t="inlineStr">
+        <is>
+          <t>1381346590280007682</t>
+        </is>
+      </c>
+      <c r="B4794" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4795">
+      <c r="A4795" t="inlineStr">
+        <is>
+          <t>1381346591752224769</t>
+        </is>
+      </c>
+      <c r="B4795" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4796">
+      <c r="A4796" t="inlineStr">
+        <is>
+          <t>1381346594059124740</t>
+        </is>
+      </c>
+      <c r="B4796" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4797">
+      <c r="A4797" t="inlineStr">
+        <is>
+          <t>1381346595254456320</t>
+        </is>
+      </c>
+      <c r="B4797" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4798">
+      <c r="A4798" t="inlineStr">
+        <is>
+          <t>1381346598417018887</t>
+        </is>
+      </c>
+      <c r="B4798" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4799">
+      <c r="A4799" t="inlineStr">
+        <is>
+          <t>1381685630716018693</t>
+        </is>
+      </c>
+      <c r="B4799" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4800">
+      <c r="A4800" t="inlineStr">
+        <is>
+          <t>1381685630824931329</t>
+        </is>
+      </c>
+      <c r="B4800" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4801">
+      <c r="A4801" t="inlineStr">
+        <is>
+          <t>1381685630741188609</t>
+        </is>
+      </c>
+      <c r="B4801" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4802">
+      <c r="A4802" t="inlineStr">
+        <is>
+          <t>1381685630883758081</t>
+        </is>
+      </c>
+      <c r="B4802" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4803">
+      <c r="A4803" t="inlineStr">
+        <is>
+          <t>1381685630825070594</t>
+        </is>
+      </c>
+      <c r="B4803" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4804">
+      <c r="A4804" t="inlineStr">
+        <is>
+          <t>1381685631135309824</t>
+        </is>
+      </c>
+      <c r="B4804" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4805">
+      <c r="A4805" t="inlineStr">
+        <is>
+          <t>1381685631277883392</t>
+        </is>
+      </c>
+      <c r="B4805" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4806">
+      <c r="A4806" t="inlineStr">
+        <is>
+          <t>1381685631391178752</t>
+        </is>
+      </c>
+      <c r="B4806" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4807">
+      <c r="A4807" t="inlineStr">
+        <is>
+          <t>1381685631840030723</t>
+        </is>
+      </c>
+      <c r="B4807" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4808">
+      <c r="A4808" t="inlineStr">
+        <is>
+          <t>1381685632540418049</t>
+        </is>
+      </c>
+      <c r="B4808" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4809">
+      <c r="A4809" t="inlineStr">
+        <is>
+          <t>1381685632536297479</t>
+        </is>
+      </c>
+      <c r="B4809" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4810">
+      <c r="A4810" t="inlineStr">
+        <is>
+          <t>1381685632725086217</t>
+        </is>
+      </c>
+      <c r="B4810" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4811">
+      <c r="A4811" t="inlineStr">
+        <is>
+          <t>1381685632687337480</t>
+        </is>
+      </c>
+      <c r="B4811" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4812">
+      <c r="A4812" t="inlineStr">
+        <is>
+          <t>1381685633106767878</t>
+        </is>
+      </c>
+      <c r="B4812" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4813">
+      <c r="A4813" t="inlineStr">
+        <is>
+          <t>1381685633593135104</t>
+        </is>
+      </c>
+      <c r="B4813" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4814">
+      <c r="A4814" t="inlineStr">
+        <is>
+          <t>1381685633517764608</t>
+        </is>
+      </c>
+      <c r="B4814" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4815">
+      <c r="A4815" t="inlineStr">
+        <is>
+          <t>1381685633664516097</t>
+        </is>
+      </c>
+      <c r="B4815" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4816">
+      <c r="A4816" t="inlineStr">
+        <is>
+          <t>1381685633924616194</t>
+        </is>
+      </c>
+      <c r="B4816" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4817">
+      <c r="A4817" t="inlineStr">
+        <is>
+          <t>1381685634293768201</t>
+        </is>
+      </c>
+      <c r="B4817" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4818">
+      <c r="A4818" t="inlineStr">
+        <is>
+          <t>1381685634327142400</t>
+        </is>
+      </c>
+      <c r="B4818" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4819">
+      <c r="A4819" t="inlineStr">
+        <is>
+          <t>1381685634528473090</t>
+        </is>
+      </c>
+      <c r="B4819" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4820">
+      <c r="A4820" t="inlineStr">
+        <is>
+          <t>1381685634599944196</t>
+        </is>
+      </c>
+      <c r="B4820" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4821">
+      <c r="A4821" t="inlineStr">
+        <is>
+          <t>1381685635073908737</t>
+        </is>
+      </c>
+      <c r="B4821" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4822">
+      <c r="A4822" t="inlineStr">
+        <is>
+          <t>1381685635065524228</t>
+        </is>
+      </c>
+      <c r="B4822" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4823">
+      <c r="A4823" t="inlineStr">
+        <is>
+          <t>1381685635002535940</t>
+        </is>
+      </c>
+      <c r="B4823" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4824">
+      <c r="A4824" t="inlineStr">
+        <is>
+          <t>1381685635950333953</t>
+        </is>
+      </c>
+      <c r="B4824" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4825">
+      <c r="A4825" t="inlineStr">
+        <is>
+          <t>1381685636680216577</t>
+        </is>
+      </c>
+      <c r="B4825" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4826">
+      <c r="A4826" t="inlineStr">
+        <is>
+          <t>1381685636734783495</t>
+        </is>
+      </c>
+      <c r="B4826" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4827">
+      <c r="A4827" t="inlineStr">
+        <is>
+          <t>1381685637217193984</t>
+        </is>
+      </c>
+      <c r="B4827" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4828">
+      <c r="A4828" t="inlineStr">
+        <is>
+          <t>1381685637573664769</t>
+        </is>
+      </c>
+      <c r="B4828" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4829">
+      <c r="A4829" t="inlineStr">
+        <is>
+          <t>1381685638412570630</t>
+        </is>
+      </c>
+      <c r="B4829" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4830">
+      <c r="A4830" t="inlineStr">
+        <is>
+          <t>1381685638852878337</t>
+        </is>
+      </c>
+      <c r="B4830" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4831">
+      <c r="A4831" t="inlineStr">
+        <is>
+          <t>1381685638940872708</t>
+        </is>
+      </c>
+      <c r="B4831" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4832">
+      <c r="A4832" t="inlineStr">
+        <is>
+          <t>1381685639477817345</t>
+        </is>
+      </c>
+      <c r="B4832" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4833">
+      <c r="A4833" t="inlineStr">
+        <is>
+          <t>1381685639641493507</t>
+        </is>
+      </c>
+      <c r="B4833" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4834">
+      <c r="A4834" t="inlineStr">
+        <is>
+          <t>1381685639930855430</t>
+        </is>
+      </c>
+      <c r="B4834" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4835">
+      <c r="A4835" t="inlineStr">
+        <is>
+          <t>1381685640018939907</t>
+        </is>
+      </c>
+      <c r="B4835" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4836">
+      <c r="A4836" t="inlineStr">
+        <is>
+          <t>1381685640182464513</t>
+        </is>
+      </c>
+      <c r="B4836" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4837">
+      <c r="A4837" t="inlineStr">
+        <is>
+          <t>1381685640144781316</t>
+        </is>
+      </c>
+      <c r="B4837" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4838">
+      <c r="A4838" t="inlineStr">
+        <is>
+          <t>1381685640425771014</t>
+        </is>
+      </c>
+      <c r="B4838" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4839">
+      <c r="A4839" t="inlineStr">
+        <is>
+          <t>1381685640870440965</t>
+        </is>
+      </c>
+      <c r="B4839" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4840">
+      <c r="A4840" t="inlineStr">
+        <is>
+          <t>1381685641352646658</t>
+        </is>
+      </c>
+      <c r="B4840" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4841">
+      <c r="A4841" t="inlineStr">
+        <is>
+          <t>1381685641449254918</t>
+        </is>
+      </c>
+      <c r="B4841" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4842">
+      <c r="A4842" t="inlineStr">
+        <is>
+          <t>1381685641830875140</t>
+        </is>
+      </c>
+      <c r="B4842" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4843">
+      <c r="A4843" t="inlineStr">
+        <is>
+          <t>1381685642090799104</t>
+        </is>
+      </c>
+      <c r="B4843" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4844">
+      <c r="A4844" t="inlineStr">
+        <is>
+          <t>1381685642099314694</t>
+        </is>
+      </c>
+      <c r="B4844" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4845">
+      <c r="A4845" t="inlineStr">
+        <is>
+          <t>1381685642380345348</t>
+        </is>
+      </c>
+      <c r="B4845" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4846">
+      <c r="A4846" t="inlineStr">
+        <is>
+          <t>1381685642757775362</t>
+        </is>
+      </c>
+      <c r="B4846" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4847">
+      <c r="A4847" t="inlineStr">
+        <is>
+          <t>1381685642833330177</t>
+        </is>
+      </c>
+      <c r="B4847" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4848">
+      <c r="A4848" t="inlineStr">
+        <is>
+          <t>1381685641898033154</t>
+        </is>
+      </c>
+      <c r="B4848" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4849">
+      <c r="A4849" t="inlineStr">
+        <is>
+          <t>1381685642925596672</t>
+        </is>
+      </c>
+      <c r="B4849" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4850">
+      <c r="A4850" t="inlineStr">
+        <is>
+          <t>1381685643164622849</t>
+        </is>
+      </c>
+      <c r="B4850" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4851">
+      <c r="A4851" t="inlineStr">
+        <is>
+          <t>1381686269097488386</t>
+        </is>
+      </c>
+      <c r="B4851" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4852">
+      <c r="A4852" t="inlineStr">
+        <is>
+          <t>1381686270628352003</t>
+        </is>
+      </c>
+      <c r="B4852" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4853">
+      <c r="A4853" t="inlineStr">
+        <is>
+          <t>1381686272897519629</t>
+        </is>
+      </c>
+      <c r="B4853" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4854">
+      <c r="A4854" t="inlineStr">
+        <is>
+          <t>1381686273828589578</t>
+        </is>
+      </c>
+      <c r="B4854" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4855">
+      <c r="A4855" t="inlineStr">
+        <is>
+          <t>1381686274264866818</t>
+        </is>
+      </c>
+      <c r="B4855" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4856">
+      <c r="A4856" t="inlineStr">
+        <is>
+          <t>1381686279398641665</t>
+        </is>
+      </c>
+      <c r="B4856" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4857">
+      <c r="A4857" t="inlineStr">
+        <is>
+          <t>1381686282288570368</t>
+        </is>
+      </c>
+      <c r="B4857" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4858">
+      <c r="A4858" t="inlineStr">
+        <is>
+          <t>1381686282544369675</t>
+        </is>
+      </c>
+      <c r="B4858" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4859">
+      <c r="A4859" t="inlineStr">
+        <is>
+          <t>1381686282540175367</t>
+        </is>
+      </c>
+      <c r="B4859" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4860">
+      <c r="A4860" t="inlineStr">
+        <is>
+          <t>1381686283664252928</t>
+        </is>
+      </c>
+      <c r="B4860" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4861">
+      <c r="A4861" t="inlineStr">
+        <is>
+          <t>1381686285107138563</t>
+        </is>
+      </c>
+      <c r="B4861" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4862">
+      <c r="A4862" t="inlineStr">
+        <is>
+          <t>1381686285316816904</t>
+        </is>
+      </c>
+      <c r="B4862" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4863">
+      <c r="A4863" t="inlineStr">
+        <is>
+          <t>1381686289649532937</t>
+        </is>
+      </c>
+      <c r="B4863" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4864">
+      <c r="A4864" t="inlineStr">
+        <is>
+          <t>1381686288798126085</t>
+        </is>
+      </c>
+      <c r="B4864" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4865">
+      <c r="A4865" t="inlineStr">
+        <is>
+          <t>1381686292740726786</t>
+        </is>
+      </c>
+      <c r="B4865" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4866">
+      <c r="A4866" t="inlineStr">
+        <is>
+          <t>1381691395807711233</t>
+        </is>
+      </c>
+      <c r="B4866" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4867">
+      <c r="A4867" t="inlineStr">
+        <is>
+          <t>1381691398034837505</t>
+        </is>
+      </c>
+      <c r="B4867" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4868">
+      <c r="A4868" t="inlineStr">
+        <is>
+          <t>1381691401021231104</t>
+        </is>
+      </c>
+      <c r="B4868" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4869">
+      <c r="A4869" t="inlineStr">
+        <is>
+          <t>1381691407493066754</t>
+        </is>
+      </c>
+      <c r="B4869" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4870">
+      <c r="A4870" t="inlineStr">
+        <is>
+          <t>1381691409011474435</t>
+        </is>
+      </c>
+      <c r="B4870" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4871">
+      <c r="A4871" t="inlineStr">
+        <is>
+          <t>1381691413163823107</t>
+        </is>
+      </c>
+      <c r="B4871" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4872">
+      <c r="A4872" t="inlineStr">
+        <is>
+          <t>1381712546739200004</t>
+        </is>
+      </c>
+      <c r="B4872" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4873">
+      <c r="A4873" t="inlineStr">
+        <is>
+          <t>1381712562509676544</t>
+        </is>
+      </c>
+      <c r="B4873" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4874">
+      <c r="A4874" t="inlineStr">
+        <is>
+          <t>1381712600073965569</t>
+        </is>
+      </c>
+      <c r="B4874" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4875">
+      <c r="A4875" t="inlineStr">
+        <is>
+          <t>1381712603873955845</t>
+        </is>
+      </c>
+      <c r="B4875" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4876">
+      <c r="A4876" t="inlineStr">
+        <is>
+          <t>1381712610001891332</t>
+        </is>
+      </c>
+      <c r="B4876" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4877">
+      <c r="A4877" t="inlineStr">
+        <is>
+          <t>1381712614808416259</t>
+        </is>
+      </c>
+      <c r="B4877" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4878">
+      <c r="A4878" t="inlineStr">
+        <is>
+          <t>1381712639353528322</t>
+        </is>
+      </c>
+      <c r="B4878" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4879">
+      <c r="A4879" t="inlineStr">
+        <is>
+          <t>1381712639462502400</t>
+        </is>
+      </c>
+      <c r="B4879" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4880">
+      <c r="A4880" t="inlineStr">
+        <is>
+          <t>1381712646362210304</t>
+        </is>
+      </c>
+      <c r="B4880" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4881">
+      <c r="A4881" t="inlineStr">
+        <is>
+          <t>1381712653647802368</t>
+        </is>
+      </c>
+      <c r="B4881" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4882">
+      <c r="A4882" t="inlineStr">
+        <is>
+          <t>1381712654188810246</t>
+        </is>
+      </c>
+      <c r="B4882" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4883">
+      <c r="A4883" t="inlineStr">
+        <is>
+          <t>1381712665190359040</t>
+        </is>
+      </c>
+      <c r="B4883" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4884">
+      <c r="A4884" t="inlineStr">
+        <is>
+          <t>1381712684303806464</t>
+        </is>
+      </c>
+      <c r="B4884" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4885">
+      <c r="A4885" t="inlineStr">
+        <is>
+          <t>1381712689085390849</t>
+        </is>
+      </c>
+      <c r="B4885" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4886">
+      <c r="A4886" t="inlineStr">
+        <is>
+          <t>1381712695557292032</t>
+        </is>
+      </c>
+      <c r="B4886" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4887">
+      <c r="A4887" t="inlineStr">
+        <is>
+          <t>1381712704746835968</t>
+        </is>
+      </c>
+      <c r="B4887" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4888">
+      <c r="A4888" t="inlineStr">
+        <is>
+          <t>1381712721628909569</t>
+        </is>
+      </c>
+      <c r="B4888" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4889">
+      <c r="A4889" t="inlineStr">
+        <is>
+          <t>1381712721721221121</t>
+        </is>
+      </c>
+      <c r="B4889" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4890">
+      <c r="A4890" t="inlineStr">
+        <is>
+          <t>1381712727236874242</t>
+        </is>
+      </c>
+      <c r="B4890" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4891">
+      <c r="A4891" t="inlineStr">
+        <is>
+          <t>1381712728524349440</t>
+        </is>
+      </c>
+      <c r="B4891" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
